--- a/doc/I2C Controller Metric Plan.xlsx
+++ b/doc/I2C Controller Metric Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/zsolt_laszlo_capgemini_com/Documents/Desktop/P_Diploma/BD_PROJECT/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1087" documentId="13_ncr:1_{847C6269-1DFB-49CF-8CCD-C7E407AB4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979BEE28-0C15-4307-9829-FB6E303AD2C3}"/>
+  <xr:revisionPtr revIDLastSave="1246" documentId="13_ncr:1_{847C6269-1DFB-49CF-8CCD-C7E407AB4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3913E677-18F4-47E0-AC12-EFA143219A35}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coverage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="309">
   <si>
     <t>Scope</t>
   </si>
@@ -439,9 +439,6 @@
     <t>signal_full</t>
   </si>
   <si>
-    <t>when tx_fifo is full check if status register confirms it</t>
-  </si>
-  <si>
     <t>register_update</t>
   </si>
   <si>
@@ -1016,6 +1013,21 @@
   </si>
   <si>
     <t>slave uvc streches the clock</t>
+  </si>
+  <si>
+    <t>write_all_registers
+read_all_registers</t>
+  </si>
+  <si>
+    <t>write_all_registers
+system_reset
+read_all_registers</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>when tx_fifo is full check if irq register confirms it</t>
   </si>
 </sst>
 </file>
@@ -1401,45 +1413,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,9 +1470,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1479,6 +1494,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1504,21 +1531,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1804,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:D60"/>
     </sheetView>
   </sheetViews>
@@ -1860,52 +1872,52 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.05" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" s="69" t="s">
+      <c r="D6" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="J6" s="56"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="71"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="57"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="28.8">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="33" t="s">
         <v>39</v>
       </c>
@@ -1915,19 +1927,19 @@
       <c r="G8" s="10"/>
       <c r="H8" s="34"/>
       <c r="I8" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10" ht="28.8">
-      <c r="A9" s="71"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="71"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="33" t="s">
         <v>44</v>
       </c>
@@ -1937,19 +1949,19 @@
       <c r="G9" s="10"/>
       <c r="H9" s="34"/>
       <c r="I9" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:10" ht="28.8">
-      <c r="A10" s="71"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="71"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="34" t="s">
         <v>44</v>
       </c>
@@ -1959,19 +1971,19 @@
       <c r="G10" s="10"/>
       <c r="H10" s="34"/>
       <c r="I10" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="57.6">
-      <c r="A11" s="71"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="71"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="34"/>
       <c r="F11" s="10" t="s">
         <v>49</v>
@@ -1979,19 +1991,19 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="28.8">
-      <c r="A12" s="71"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34" t="s">
         <v>42</v>
@@ -1999,127 +2011,127 @@
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J12" s="36"/>
     </row>
     <row r="13" spans="1:10" ht="28.8">
-      <c r="A13" s="71"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="71"/>
+        <v>225</v>
+      </c>
+      <c r="D13" s="73"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="28.8">
-      <c r="A14" s="71"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="71"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="43.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="71"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="34"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" ht="28.8">
-      <c r="A16" s="71"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="71"/>
+        <v>231</v>
+      </c>
+      <c r="D16" s="73"/>
       <c r="E16" s="34"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="J17" s="56"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="57"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="57"/>
+      <c r="B19" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C19" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="J17" s="65"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="72"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="66"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="72"/>
-      <c r="B19" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="40" t="s">
         <v>44</v>
       </c>
@@ -2127,789 +2139,789 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="28.8">
-      <c r="A20" s="72"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="72"/>
+        <v>123</v>
+      </c>
+      <c r="D20" s="57"/>
       <c r="E20" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="40"/>
       <c r="I20" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="28.8">
-      <c r="A21" s="72"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="72"/>
+        <v>228</v>
+      </c>
+      <c r="D21" s="57"/>
       <c r="E21" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="43.2">
-      <c r="A22" s="72"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="72"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="28.8">
-      <c r="A23" s="72"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="28.8">
-      <c r="A24" s="72"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="72"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="28.8">
-      <c r="A25" s="72"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="72"/>
+        <v>229</v>
+      </c>
+      <c r="D25" s="57"/>
       <c r="E25" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="41"/>
       <c r="I25" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="43.2">
-      <c r="A26" s="66"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="41"/>
       <c r="I26" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" ht="28.8">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="68" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>290</v>
+        <v>132</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>289</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" ht="28.8">
-      <c r="A28" s="55"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="59"/>
+        <v>133</v>
+      </c>
+      <c r="D28" s="60"/>
       <c r="E28" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" ht="28.8">
-      <c r="A29" s="55"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="59"/>
+        <v>147</v>
+      </c>
+      <c r="D29" s="60"/>
       <c r="E29" s="45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10" ht="28.8">
-      <c r="A30" s="55"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="59"/>
+        <v>141</v>
+      </c>
+      <c r="D30" s="60"/>
       <c r="E30" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10" ht="28.8">
-      <c r="A31" s="55"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="59"/>
+        <v>142</v>
+      </c>
+      <c r="D31" s="60"/>
       <c r="E31" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="45"/>
       <c r="I31" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:10" ht="28.8">
-      <c r="A32" s="55"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="59"/>
+        <v>143</v>
+      </c>
+      <c r="D32" s="60"/>
       <c r="E32" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" ht="28.8">
-      <c r="A33" s="55"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="59"/>
+        <v>144</v>
+      </c>
+      <c r="D33" s="60"/>
       <c r="E33" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="45"/>
       <c r="I33" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:10" ht="28.8">
-      <c r="A34" s="55"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="59"/>
+        <v>145</v>
+      </c>
+      <c r="D34" s="60"/>
       <c r="E34" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10" ht="28.8">
-      <c r="A35" s="55"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="59"/>
+        <v>146</v>
+      </c>
+      <c r="D35" s="60"/>
       <c r="E35" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" ht="28.8">
-      <c r="A36" s="55"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="59"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" ht="28.8">
-      <c r="A37" s="55"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" ht="43.2">
-      <c r="A38" s="55"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="59"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="45"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J38" s="47"/>
     </row>
     <row r="39" spans="1:10" ht="43.2">
-      <c r="A39" s="55"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="59"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="45"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10" ht="28.8">
-      <c r="A40" s="55"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="59"/>
+        <v>179</v>
+      </c>
+      <c r="D40" s="60"/>
       <c r="E40" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" ht="28.8">
-      <c r="A41" s="55"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10" ht="43.2">
-      <c r="A42" s="55"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="45"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J42" s="47"/>
     </row>
     <row r="43" spans="1:10" ht="28.8">
-      <c r="A43" s="55"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="59"/>
+        <v>199</v>
+      </c>
+      <c r="D43" s="60"/>
       <c r="E43" s="45"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10" ht="28.8">
-      <c r="A44" s="55"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="59"/>
+        <v>200</v>
+      </c>
+      <c r="D44" s="60"/>
       <c r="E44" s="45"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10" ht="28.8">
-      <c r="A45" s="55"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="59"/>
+        <v>201</v>
+      </c>
+      <c r="D45" s="60"/>
       <c r="E45" s="45"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10" ht="28.8">
-      <c r="A46" s="55"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="59"/>
+        <v>202</v>
+      </c>
+      <c r="D46" s="60"/>
       <c r="E46" s="45"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J46" s="47"/>
     </row>
     <row r="47" spans="1:10" ht="28.8">
-      <c r="A47" s="55"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D47" s="59"/>
+        <v>203</v>
+      </c>
+      <c r="D47" s="60"/>
       <c r="E47" s="45"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10" ht="28.8">
-      <c r="A48" s="55"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="59"/>
+        <v>204</v>
+      </c>
+      <c r="D48" s="60"/>
       <c r="E48" s="45"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J48" s="47"/>
     </row>
     <row r="49" spans="1:10" ht="43.2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="59"/>
+        <v>209</v>
+      </c>
+      <c r="D49" s="60"/>
       <c r="E49" s="45"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J49" s="47"/>
     </row>
     <row r="50" spans="1:10" ht="43.2">
-      <c r="A50" s="55"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="59"/>
+        <v>210</v>
+      </c>
+      <c r="D50" s="60"/>
       <c r="E50" s="45"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" ht="43.2">
-      <c r="A51" s="55"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="59"/>
+        <v>211</v>
+      </c>
+      <c r="D51" s="60"/>
       <c r="E51" s="45"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J51" s="47"/>
     </row>
     <row r="52" spans="1:10" ht="43.2">
-      <c r="A52" s="55"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="59"/>
+        <v>212</v>
+      </c>
+      <c r="D52" s="60"/>
       <c r="E52" s="45"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J52" s="47"/>
     </row>
     <row r="53" spans="1:10" ht="28.8">
-      <c r="A53" s="55"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="59"/>
+        <v>219</v>
+      </c>
+      <c r="D53" s="60"/>
       <c r="E53" s="45"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J53" s="47"/>
     </row>
     <row r="54" spans="1:10" ht="28.8">
-      <c r="A54" s="55"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="59"/>
+        <v>219</v>
+      </c>
+      <c r="D54" s="60"/>
       <c r="E54" s="45"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J54" s="47"/>
     </row>
     <row r="55" spans="1:10" ht="28.8">
-      <c r="A55" s="55"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D55" s="59"/>
+        <v>219</v>
+      </c>
+      <c r="D55" s="60"/>
       <c r="E55" s="45"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J55" s="47"/>
     </row>
     <row r="56" spans="1:10" ht="28.8">
-      <c r="A56" s="55"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" s="59"/>
+        <v>219</v>
+      </c>
+      <c r="D56" s="60"/>
       <c r="E56" s="45"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J56" s="47"/>
     </row>
     <row r="57" spans="1:10" ht="28.8">
-      <c r="A57" s="55"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="59"/>
+        <v>219</v>
+      </c>
+      <c r="D57" s="60"/>
       <c r="E57" s="45"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J57" s="47"/>
     </row>
     <row r="58" spans="1:10" ht="28.8">
-      <c r="A58" s="55"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="59"/>
+      <c r="D58" s="60"/>
       <c r="E58" s="45"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J58" s="47"/>
     </row>
     <row r="59" spans="1:10" ht="43.2">
-      <c r="A59" s="55"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="59"/>
+        <v>220</v>
+      </c>
+      <c r="D59" s="60"/>
       <c r="E59" s="45"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10" ht="28.8">
-      <c r="A60" s="55"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="60"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="45"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J60" s="47"/>
     </row>
@@ -2950,12 +2962,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="D27:D60"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="A27:A60"/>
     <mergeCell ref="J6:J7"/>
@@ -2972,6 +2978,12 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="D6:D16"/>
+    <mergeCell ref="D17:D26"/>
+    <mergeCell ref="D27:D60"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
@@ -2981,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:H63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D50"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3029,7 +3041,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="64" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -3048,12 +3060,12 @@
         <v>54</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="71"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="10" t="s">
         <v>55</v>
       </c>
@@ -3070,12 +3082,12 @@
         <v>54</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="10" t="s">
         <v>57</v>
       </c>
@@ -3092,12 +3104,12 @@
         <v>54</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="71"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="11" t="s">
         <v>59</v>
       </c>
@@ -3114,12 +3126,12 @@
         <v>54</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="71"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3136,12 +3148,12 @@
         <v>54</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="71"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
@@ -3158,12 +3170,12 @@
         <v>54</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="71"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="10" t="s">
         <v>66</v>
       </c>
@@ -3180,12 +3192,12 @@
         <v>54</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="71"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="10" t="s">
         <v>67</v>
       </c>
@@ -3202,12 +3214,12 @@
         <v>54</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A14" s="71"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
@@ -3224,12 +3236,12 @@
         <v>54</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="71"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="10" t="s">
         <v>71</v>
       </c>
@@ -3246,12 +3258,12 @@
         <v>54</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A16" s="71"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="10" t="s">
         <v>73</v>
       </c>
@@ -3268,12 +3280,12 @@
         <v>54</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A17" s="71"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="10" t="s">
         <v>75</v>
       </c>
@@ -3290,12 +3302,12 @@
         <v>54</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A18" s="71"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="10" t="s">
         <v>77</v>
       </c>
@@ -3312,12 +3324,12 @@
         <v>54</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A19" s="71"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="10" t="s">
         <v>79</v>
       </c>
@@ -3334,12 +3346,12 @@
         <v>54</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A20" s="71"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="10" t="s">
         <v>81</v>
       </c>
@@ -3356,40 +3368,40 @@
         <v>54</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="77" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>14</v>
@@ -3398,20 +3410,20 @@
         <v>54</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A23" s="77"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="D23" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>14</v>
@@ -3420,70 +3432,70 @@
         <v>54</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A24" s="77"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="77"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="D25" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A26" s="77"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>301</v>
-      </c>
       <c r="D26" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="79" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -3493,502 +3505,502 @@
         <v>111</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A28" s="79"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
       <c r="G28" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="80"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>234</v>
-      </c>
       <c r="D29" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
       <c r="G29" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
       <c r="G30" s="47" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="D31" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
       <c r="G31" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A32" s="60"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>234</v>
-      </c>
       <c r="D32" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="19"/>
       <c r="G32" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="74" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>236</v>
-      </c>
       <c r="D33" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A34" s="74"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>238</v>
-      </c>
       <c r="D34" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="74"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>240</v>
-      </c>
       <c r="D35" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="15"/>
       <c r="G35" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A36" s="74"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="15"/>
       <c r="G36" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="D37" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
       <c r="G37" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A38" s="74"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>246</v>
-      </c>
       <c r="D38" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
       <c r="G38" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="74"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>248</v>
-      </c>
       <c r="D39" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
       <c r="G39" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A40" s="74"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>250</v>
-      </c>
       <c r="D40" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="15"/>
       <c r="G40" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="74"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>252</v>
-      </c>
       <c r="D41" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="15"/>
       <c r="G41" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A42" s="74"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="D42" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="15"/>
       <c r="G42" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A43" s="74"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="D43" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="15"/>
       <c r="G43" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A44" s="74"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>258</v>
-      </c>
       <c r="D44" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="15"/>
       <c r="G44" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A45" s="74"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="D45" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="15"/>
       <c r="G45" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A46" s="74"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="D46" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="15"/>
       <c r="G46" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A47" s="74"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="D47" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="15"/>
       <c r="G47" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A48" s="74"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>266</v>
-      </c>
       <c r="D48" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="15"/>
       <c r="G48" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A49" s="74"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>268</v>
-      </c>
       <c r="D49" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="15"/>
       <c r="G49" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A50" s="74"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="D50" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="15"/>
       <c r="G50" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A51" s="74"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>272</v>
-      </c>
       <c r="D51" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="15"/>
       <c r="G51" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A52" s="74"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="D52" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="15"/>
       <c r="G52" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A53" s="74"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>276</v>
-      </c>
       <c r="D53" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="15"/>
       <c r="G53" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A54" s="75"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>158</v>
-      </c>
       <c r="D54" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="15"/>
       <c r="G54" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H54" s="14"/>
     </row>
@@ -4084,8 +4096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4135,37 +4147,49 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="88" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="43.2">
-      <c r="A7" s="84"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>306</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="74.400000000000006" customHeight="1">
-      <c r="A8" s="84"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="11" t="s">
         <v>83</v>
       </c>
@@ -4179,7 +4203,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1">
-      <c r="A9" s="84"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="11" t="s">
         <v>84</v>
       </c>
@@ -4193,14 +4217,14 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="51" customHeight="1">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="90" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -4209,7 +4233,7 @@
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="28.8">
-      <c r="A11" s="86"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="23" t="s">
         <v>88</v>
       </c>
@@ -4223,12 +4247,12 @@
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="28.8">
-      <c r="A12" s="86"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>154</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -4237,12 +4261,12 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="43.2">
-      <c r="A13" s="87"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>152</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -4251,7 +4275,7 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="57.6" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -4267,7 +4291,7 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="28.8">
-      <c r="A15" s="89"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="26" t="s">
         <v>93</v>
       </c>
@@ -4281,7 +4305,7 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="43.2">
-      <c r="A16" s="89"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="27" t="s">
         <v>96</v>
       </c>
@@ -4295,7 +4319,7 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" ht="28.8">
-      <c r="A17" s="89"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="27" t="s">
         <v>97</v>
       </c>
@@ -4309,7 +4333,7 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" ht="28.8">
-      <c r="A18" s="89"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="27" t="s">
         <v>98</v>
       </c>
@@ -4323,9 +4347,9 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="43.2">
-      <c r="A19" s="89"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>101</v>
@@ -4337,12 +4361,12 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" ht="28.8">
-      <c r="A20" s="89"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>162</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
@@ -4351,7 +4375,7 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="43.2">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="86" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -4367,7 +4391,7 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="43.2">
-      <c r="A22" s="82"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="17" t="s">
         <v>103</v>
       </c>
@@ -4381,7 +4405,7 @@
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="72">
-      <c r="A23" s="82"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="17" t="s">
         <v>108</v>
       </c>
@@ -4395,14 +4419,14 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="43.2">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -4411,12 +4435,12 @@
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="94"/>
-      <c r="B25" s="90" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
@@ -4425,7 +4449,7 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="40.200000000000003" customHeight="1">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="84" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="29" t="s">
@@ -4441,12 +4465,12 @@
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="40.200000000000003" customHeight="1">
-      <c r="A27" s="92"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>304</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>305</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="19"/>
